--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2254835_cognizant_com/Documents/Desktop/Senthamizh/Kore.AI/SDKApp - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74160190-9089-4EE7-BB82-7EC93D1E0920}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DAE270-5FCE-4897-86D7-938171785B84}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>ESI_PHA_ORD_INFO_CNFN_MSG</t>
   </si>
   <si>
-    <t>Thanks for your confirmation. Here is your order status, Status : Completed. Is there anything else I can assist with you?</t>
+    <t>Thanks for your confirmation. Here is your order status, Status : ${tempData.message[0].component.payload.data.ORDER_STATUS}. Is there anything else I can assist with you?</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2254835_cognizant_com/Documents/Desktop/Senthamizh/Kore.AI/SDKApp - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DAE270-5FCE-4897-86D7-938171785B84}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC6356B-5F7D-46D0-8415-E16C3B4422B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -536,20 +536,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.90625" customWidth="1"/>
     <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +564,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -576,61 +581,95 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -642,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A7FAE-3539-4F42-9974-BD06304157E9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2254835_cognizant_com/Documents/Desktop/Senthamizh/Kore.AI/SDKApp - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EC6356B-5F7D-46D0-8415-E16C3B4422B7}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5953BA3A-DB4E-4CB6-B154-44FF6A88ECCF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>ESI_PHA_ORD_INFO_CNFN_MSG</t>
   </si>
   <si>
-    <t>Thanks for your confirmation. Here is your order status, Status : ${tempData.message[0].component.payload.data.ORDER_STATUS}. Is there anything else I can assist with you?</t>
+    <t>Thanks for your confirmation. Here is your order status, Status : Inprogess. Is there anything else I can assist with you?</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
